--- a/3- Desarrollo/04- Inventario Software Y Hardware/01-Hardware (Cliente) Kyukeisho.xlsx
+++ b/3- Desarrollo/04- Inventario Software Y Hardware/01-Hardware (Cliente) Kyukeisho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZ.DESKTOP-9L871TK\Pictures\sena_ceet\III TRIMESTRE\JAIRO VELASQUEZ\ESTIMADOS\HARDWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andres\Proyecto_Formativo\Kyukeisho_New\3- Desarrollo\04- Inventario Software Y Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB81AC1-1823-4096-B9F7-71C31445DCED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A619D-6207-46A8-A9EC-A8095DF7BF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -204,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -309,46 +310,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,49 +367,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +588,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,590 +601,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="22" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13">
+        <v>379900</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="1">
+        <f>E6*F6</f>
+        <v>1519600</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>200000</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I26" si="0">E7*F7</f>
+        <v>800000</v>
+      </c>
+    </row>
     <row r="8" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="23">
-        <v>379900</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="2">
-        <f>E8*F8</f>
-        <v>1519600</v>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13">
+        <v>174900</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>699600</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
+        <v>126900</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>507600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="24">
-        <v>200000</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9:I28" si="0">E9*F9</f>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="15">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>70000</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="23">
-        <v>174900</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>699600</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="13">
+        <v>63999</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>255996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="23">
-        <v>126900</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="2">
-        <f t="shared" si="0"/>
-        <v>507600</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="15">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13">
+        <v>16900</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="23">
-        <v>70000</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="2">
-        <f t="shared" si="0"/>
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="15">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13">
+        <v>159000</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>636000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="23">
-        <v>63999</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>255996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="15">
-        <v>7</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="23">
-        <v>16900</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>67600</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="15">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="13">
+        <v>53300</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>213200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="23">
-        <v>159000</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>636000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="15">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>94500</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
-        <v>10</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="23">
-        <v>53300</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="2">
-        <f t="shared" si="0"/>
-        <v>213200</v>
+      <c r="C17" s="12"/>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="13">
+        <v>11400</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>45600</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="15">
-        <v>11</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="11">
         <v>14</v>
       </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="23">
-        <v>94500</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="2">
-        <f t="shared" si="0"/>
-        <v>378000</v>
+      <c r="C18" s="12"/>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="13">
+        <v>380000</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1520000</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="15">
-        <v>12</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="11">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="23">
-        <v>11400</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="2">
-        <f t="shared" si="0"/>
-        <v>45600</v>
+      <c r="C19" s="12"/>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13">
+        <v>55000</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>220000</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="15">
-        <v>14</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="11">
         <v>16</v>
       </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="23">
-        <v>380000</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>1520000</v>
+      <c r="C20" s="12"/>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="13">
+        <v>133900</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>535600</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="15">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="11">
         <v>17</v>
       </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
-      <c r="F21" s="23">
-        <v>55000</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>220000</v>
+      <c r="C21" s="12"/>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45000</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>180000</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="15">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="11">
         <v>18</v>
       </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="23">
-        <v>133900</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>535600</v>
+      <c r="C22" s="12"/>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="13">
+        <v>39900</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>159600</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="15">
-        <v>17</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="11">
         <v>19</v>
       </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="23">
-        <v>45000</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="2">
-        <f t="shared" si="0"/>
-        <v>180000</v>
+      <c r="C23" s="12"/>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13">
+        <v>39900</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>159600</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="15">
-        <v>18</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="11">
         <v>20</v>
       </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
-      <c r="F24" s="23">
-        <v>39900</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="2">
-        <f t="shared" si="0"/>
-        <v>159600</v>
+      <c r="C24" s="12"/>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13">
+        <v>60000</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>240000</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="15">
-        <v>19</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="11">
         <v>21</v>
       </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-      <c r="F25" s="23">
-        <v>39900</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>159600</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="15">
-        <v>20</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="3" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="13">
+        <v>32910</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>131640</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11">
         <v>22</v>
       </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="23">
-        <v>60000</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>240000</v>
+      <c r="C26" s="12"/>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="17">
+        <v>139900</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>559600</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="15">
-        <v>21</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4</v>
-      </c>
-      <c r="F27" s="23">
-        <v>32910</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>131640</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15">
-        <v>22</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="24">
-        <v>139900</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
-        <v>559600</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="28">
-        <f>SUM(I8:I28)</f>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="8">
+        <f>SUM(I6:I26)</f>
         <v>9109236</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B1:I5"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B1:I4"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
